--- a/activities/Mexican Related Derivatives/Pricing Derivatives Table - copia.xlsx
+++ b/activities/Mexican Related Derivatives/Pricing Derivatives Table - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://winliveudlap-my.sharepoint.com/personal/heriberto_espinomo_udlap_mx/Documents/Universidad/09 Semestre Otoño/Productos Derivados/activities/Mexican Related Derivatives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="8_{733CA016-E4A7-428A-A759-10397AE54436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7193180B-00F8-48D4-B47F-CD4E0B740CEB}"/>
+  <xr:revisionPtr revIDLastSave="505" documentId="8_{733CA016-E4A7-428A-A759-10397AE54436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C93ECBCA-C12A-494E-8F3B-97812BFDE29E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-1280" yWindow="2330" windowWidth="19200" windowHeight="11710" activeTab="2" xr2:uid="{5F38871A-6685-451C-ACE8-1E35FDC6A578}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="5" xr2:uid="{5F38871A-6685-451C-ACE8-1E35FDC6A578}"/>
   </bookViews>
   <sheets>
     <sheet name="Corn" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t>https://www.newyorkfed.org/markets/reference-rates/sofr?cid=SM1900054756</t>
   </si>
@@ -204,18 +204,6 @@
   </si>
   <si>
     <t>XAG/USD</t>
-  </si>
-  <si>
-    <t>tasa de hoy</t>
-  </si>
-  <si>
-    <t>compuesta</t>
-  </si>
-  <si>
-    <t>tasa hoy</t>
-  </si>
-  <si>
-    <t>tasa mercado</t>
   </si>
   <si>
     <t>SOFR</t>
@@ -506,7 +494,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -598,6 +586,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -952,7 +943,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,10 +968,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="12">
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="E2" s="7"/>
       <c r="G2" s="38" t="s">
@@ -1093,11 +1084,11 @@
       </c>
       <c r="C12" s="12">
         <f>D2</f>
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="D12" s="14">
         <f>(1+C12)^(1/360)-1</f>
-        <v>1.1988293625697644E-4</v>
+        <v>1.2014900063062051E-4</v>
       </c>
       <c r="E12" s="10">
         <v>360</v>
@@ -1135,7 +1126,7 @@
       </c>
       <c r="C15" s="15">
         <f>D4*EXP((D12-D13)*C9)</f>
-        <v>434.71670057855806</v>
+        <v>434.72722600500288</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="7"/>
@@ -1160,7 +1151,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="15">
         <f>C16-C15</f>
-        <v>-6.7167005785580614</v>
+        <v>-6.7272260050028763</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -1179,10 +1170,10 @@
         <v>-4.6511627906976605E-3</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.55000000000000004">
@@ -1218,7 +1209,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1243,10 +1234,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="12">
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="E2" s="7"/>
       <c r="H2" s="4" t="s">
@@ -1360,11 +1351,11 @@
       </c>
       <c r="C12" s="12">
         <f>D2</f>
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="D12" s="14">
         <f>(1+C12)^(1/360)-1</f>
-        <v>1.1988293625697644E-4</v>
+        <v>1.2014900063062051E-4</v>
       </c>
       <c r="E12" s="10">
         <v>360</v>
@@ -1404,7 +1395,7 @@
       </c>
       <c r="C15" s="15">
         <f>D4*EXP((D12-D13)*C9)</f>
-        <v>62.765199679525068</v>
+        <v>62.765366675582626</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="7"/>
@@ -1429,7 +1420,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="15">
         <f>C16-C15</f>
-        <v>-0.16519967952506676</v>
+        <v>-0.16536667558262508</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -1448,10 +1439,10 @@
         <v>-1.4356356675705451E-3</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="36"/>
       <c r="H19" s="2"/>
     </row>
@@ -1488,8 +1479,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="141" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1514,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="12">
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="E2" s="7"/>
       <c r="H2" s="4" t="s">
@@ -1631,11 +1622,11 @@
       </c>
       <c r="C12" s="12">
         <f>D2</f>
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="D12" s="14">
         <f>(1+C12)^(1/360)-1</f>
-        <v>1.1988293625697644E-4</v>
+        <v>1.2014900063062051E-4</v>
       </c>
       <c r="E12" s="10">
         <v>360</v>
@@ -1675,7 +1666,7 @@
       </c>
       <c r="C15" s="15">
         <f>D4*EXP((D12-D13)*C9)</f>
-        <v>42.744865705999757</v>
+        <v>42.746093995326518</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="7"/>
@@ -1683,7 +1674,7 @@
     <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="17">
         <f>D5</f>
@@ -1700,7 +1691,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="15">
         <f>C16-C15</f>
-        <v>8.5134294000241084E-2</v>
+        <v>8.3906004673480084E-2</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -1719,10 +1710,10 @@
         <v>1.5049176442706536E-2</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="36"/>
       <c r="H19" s="2"/>
     </row>
@@ -1759,7 +1750,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1784,10 +1775,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="12">
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="E2" s="7"/>
       <c r="H2" s="4" t="s">
@@ -1904,11 +1895,11 @@
       </c>
       <c r="C12" s="12">
         <f>D2</f>
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="D12" s="14">
         <f>(1+C12)^(1/360)-1</f>
-        <v>1.1988293625697644E-4</v>
+        <v>1.2014900063062051E-4</v>
       </c>
       <c r="E12" s="10">
         <v>360</v>
@@ -1948,7 +1939,7 @@
       </c>
       <c r="C15" s="15">
         <f>D4*EXP((D12-D13)*C9)</f>
-        <v>61819.360751319793</v>
+        <v>61819.492334895804</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="7"/>
@@ -1973,7 +1964,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="15">
         <f>C16-C15</f>
-        <v>20.639248680206947</v>
+        <v>20.507665104196349</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -1992,10 +1983,10 @@
         <v>6.6441269057371244E-4</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="36"/>
       <c r="H19" s="2"/>
     </row>
@@ -2031,8 +2022,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="C19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2057,10 +2048,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="12">
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="E2" s="7"/>
       <c r="H2" s="4" t="s">
@@ -2177,11 +2168,11 @@
       </c>
       <c r="C12" s="12">
         <f>D2</f>
-        <v>4.41E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="D12" s="14">
         <f>(1+C12)^(1/360)-1</f>
-        <v>1.1988293625697644E-4</v>
+        <v>1.2014900063062051E-4</v>
       </c>
       <c r="E12" s="10">
         <v>360</v>
@@ -2221,7 +2212,7 @@
       </c>
       <c r="C15" s="15">
         <f>D4*EXP((D12-D13)*C9)</f>
-        <v>5.4881711047398578E-2</v>
+        <v>5.4883083658962044E-2</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="7"/>
@@ -2246,7 +2237,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="15">
         <f>C16-C15</f>
-        <v>-1.1817110473985801E-3</v>
+        <v>-1.1830836589620461E-3</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -2265,10 +2256,10 @@
         <v>-1.0443250000000126E-2</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="36"/>
       <c r="H19" s="2"/>
     </row>
@@ -2304,10 +2295,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="162" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2331,275 +2322,122 @@
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="12">
-        <v>4.41E-2</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D2" s="39">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="4" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="24"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10">
+        <v>92.28</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
-      <c r="B4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="15">
-        <f>100-F4*100</f>
-        <v>91.963999999999999</v>
-      </c>
-      <c r="E4" s="34">
-        <v>8.0126000000000003E-2</v>
-      </c>
-      <c r="F4" s="34">
-        <v>8.0360000000000001E-2</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="3"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="10">
-        <v>92.28</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="C5" s="29">
+        <v>18</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="3"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="22"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="24"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15">
+        <f>100- 100*((1+D2/360)^C5-1)*360/C5</f>
+        <v>91.974833095782486</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17">
+        <f>D3</f>
+        <v>92.28</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="29">
-        <v>18</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="1">
-        <f>(1+E4/360)^30</f>
-        <v>1.0066987607004656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12">
-        <f>D2</f>
-        <v>4.41E-2</v>
-      </c>
-      <c r="D12" s="14">
-        <f>(1+C12)^(1/360)-1</f>
-        <v>1.1988293625697644E-4</v>
-      </c>
-      <c r="E12" s="10">
-        <v>360</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="1">
-        <f>(H11-1)*360/30</f>
-        <v>8.0385128405587203E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12">
-        <f>C7</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <f>(C13+1)^(1/252)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>252</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15">
-        <f>D4*EXP((D12-D13)*C9)</f>
-        <v>92.162662727649447</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="37">
-        <f>100-C15</f>
-        <v>7.8373372723505526</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="17">
-        <f>D5</f>
-        <v>92.28</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="7">
-        <f>100-C16</f>
-        <v>7.7199999999999989</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15">
-        <f>C16-C15</f>
-        <v>0.11733727235055369</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="30">
-        <f>C16/D4-1</f>
-        <v>3.4361271802010318E-3</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="39" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="15">
+        <f>C8-C7</f>
+        <v>0.30516690421751491</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="32"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="32"/>
-      <c r="C22" s="13"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="32"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="32"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="32"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{263A1ECF-6D47-445A-A602-3CA7BE7C8346}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2611,7 +2449,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2636,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="12">
         <v>4.41E-2</v>

--- a/activities/Mexican Related Derivatives/Pricing Derivatives Table - copia.xlsx
+++ b/activities/Mexican Related Derivatives/Pricing Derivatives Table - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://winliveudlap-my.sharepoint.com/personal/heriberto_espinomo_udlap_mx/Documents/Universidad/09 Semestre Otoño/Productos Derivados/activities/Mexican Related Derivatives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="8_{733CA016-E4A7-428A-A759-10397AE54436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C93ECBCA-C12A-494E-8F3B-97812BFDE29E}"/>
+  <xr:revisionPtr revIDLastSave="625" documentId="8_{733CA016-E4A7-428A-A759-10397AE54436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF04A05-0204-44C9-9B5C-544F228CB776}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="5" xr2:uid="{5F38871A-6685-451C-ACE8-1E35FDC6A578}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{5F38871A-6685-451C-ACE8-1E35FDC6A578}"/>
   </bookViews>
   <sheets>
     <sheet name="Corn" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>https://www.newyorkfed.org/markets/reference-rates/sofr?cid=SM1900054756</t>
   </si>
@@ -494,7 +494,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -595,6 +595,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -940,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34251648-18B1-4945-8E9C-3D5A47A217A3}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A3" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1024,174 +1025,138 @@
       <c r="E6" s="3"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29">
+        <v>91</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="24"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="C8" s="22"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="29">
-        <v>91</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12">
+        <f>D2</f>
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="D10" s="14">
+        <f>(1+C10)^(1/360)-1</f>
+        <v>1.2014900063062051E-4</v>
+      </c>
+      <c r="E10" s="10">
+        <v>360</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12">
-        <f>D2</f>
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="D12" s="14">
-        <f>(1+C12)^(1/360)-1</f>
-        <v>1.2014900063062051E-4</v>
-      </c>
-      <c r="E12" s="10">
-        <v>360</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15">
+        <f>D4*EXP((D10)*C7)</f>
+        <v>434.72722600500288</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
-      <c r="B13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12">
-        <f>C7</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <f>(C13+1)^(1/252)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>252</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15">
-        <f>D4*EXP((D12-D13)*C9)</f>
-        <v>434.72722600500288</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C13" s="17">
         <f>D5</f>
         <v>428</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="20" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15">
-        <f>C16-C15</f>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15">
+        <f>C13-C12</f>
         <v>-6.7272260050028763</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="31" t="s">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="30">
-        <f>C16/D4-1</f>
+      <c r="C16" s="30">
+        <f>C13/D4-1</f>
         <v>-4.6511627906976605E-3</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="40" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="32"/>
-      <c r="C20" s="13"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="32"/>
-      <c r="C22" s="13"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="32"/>
+      <c r="C17" s="13"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="32"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="32"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{DE6B5BC0-7E5B-412F-AD1D-5DAE4A091CB1}"/>
@@ -1206,10 +1171,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="152" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,178 +1255,141 @@
       <c r="E6" s="3"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29">
+        <v>10</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="24"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="C8" s="22"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12">
+        <f>D2</f>
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="D10" s="14">
+        <f>(1+C10)^(1/360)-1</f>
+        <v>1.2014900063062051E-4</v>
+      </c>
+      <c r="E10" s="10">
+        <v>360</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12">
-        <f>D2</f>
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="D12" s="14">
-        <f>(1+C12)^(1/360)-1</f>
-        <v>1.2014900063062051E-4</v>
-      </c>
-      <c r="E12" s="10">
-        <v>360</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15">
+        <f>D4*EXP((D10)*C7)</f>
+        <v>62.765366675582626</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
-      <c r="B13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12">
-        <f>C7</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <f>(C13+1)^(1/252)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>252</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15">
-        <f>D4*EXP((D12-D13)*C9)</f>
-        <v>62.765366675582626</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C13" s="17">
         <f>D5</f>
         <v>62.6</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="20" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15">
-        <f>C16-C15</f>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15">
+        <f>C13-C12</f>
         <v>-0.16536667558262508</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="31" t="s">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="30">
-        <f>C16/D4-1</f>
+      <c r="C16" s="30">
+        <f>C13/D4-1</f>
         <v>-1.4356356675705451E-3</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="40" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="32"/>
-      <c r="C20" s="13"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="32"/>
-      <c r="C22" s="13"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="32"/>
+      <c r="C17" s="13"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="32"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="32"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{AAEF8F35-4FAD-40CE-AA38-B80C074D4B8C}"/>
@@ -1477,10 +1405,10 @@
     <tabColor theme="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1561,178 +1489,141 @@
       <c r="E6" s="3"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29">
+        <v>108</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="24"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="C8" s="22"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="29">
-        <v>108</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12">
+        <f>D2</f>
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="D10" s="14">
+        <f>(1+C10)^(1/360)-1</f>
+        <v>1.2014900063062051E-4</v>
+      </c>
+      <c r="E10" s="10">
+        <v>360</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12">
-        <f>D2</f>
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="D12" s="14">
-        <f>(1+C12)^(1/360)-1</f>
-        <v>1.2014900063062051E-4</v>
-      </c>
-      <c r="E12" s="10">
-        <v>360</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15">
+        <f>D4*EXP((D10)*C7)</f>
+        <v>42.746093995326518</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
-      <c r="B13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12">
-        <f>C7</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <f>(C13+1)^(1/252)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>252</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15">
-        <f>D4*EXP((D12-D13)*C9)</f>
-        <v>42.746093995326518</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C13" s="17">
         <f>D5</f>
         <v>42.83</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="20" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15">
-        <f>C16-C15</f>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15">
+        <f>C13-C12</f>
         <v>8.3906004673480084E-2</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="31" t="s">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="30">
-        <f>C16/D4-1</f>
+      <c r="C16" s="30">
+        <f>C13/D4-1</f>
         <v>1.5049176442706536E-2</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="40" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="32"/>
-      <c r="C20" s="13"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="32"/>
-      <c r="C22" s="13"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="32"/>
+      <c r="C17" s="13"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="32"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="32"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{B3EB30FF-F98B-4F18-B857-F5BCD2353C78}"/>
@@ -1749,8 +1640,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="138" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2020,10 +1911,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C19" sqref="B19:C19"/>
+    <sheetView zoomScale="175" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2105,188 +1996,148 @@
       <c r="E6" s="3"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29">
+        <v>94</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="24"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="C8" s="22"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="29">
-        <v>94</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12">
+        <f>D2</f>
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="D10" s="14">
+        <f>(1+C10)^(1/360)-1</f>
+        <v>1.2014900063062051E-4</v>
+      </c>
+      <c r="E10" s="10">
+        <v>360</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12">
-        <f>D2</f>
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="D12" s="14">
-        <f>(1+C12)^(1/360)-1</f>
-        <v>1.2014900063062051E-4</v>
-      </c>
-      <c r="E12" s="10">
-        <v>360</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15">
+        <f>D4*EXP((D10)*C7)</f>
+        <v>5.4883083658962044E-2</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
-      <c r="B13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12">
-        <f>C7</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <f>(C13+1)^(1/252)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>252</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15">
-        <f>D4*EXP((D12-D13)*C9)</f>
-        <v>5.4883083658962044E-2</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C13" s="17">
         <f>D5</f>
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="20" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15">
-        <f>C16-C15</f>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15">
+        <f>C13-C12</f>
         <v>-1.1830836589620461E-3</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="31" t="s">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="30">
-        <f>C16/D4-1</f>
+      <c r="C16" s="30">
+        <f>C13/D4-1</f>
         <v>-1.0443250000000126E-2</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="40" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="32"/>
-      <c r="C20" s="13"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="32"/>
-      <c r="C22" s="13"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="32"/>
+      <c r="C17" s="13"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="32"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="32"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{F3061B27-1A02-4E4F-838B-0944B0E219B6}"/>
     <hyperlink ref="H5" r:id="rId2" display="https://www.cmegroup.com/markets/equities/sp/e-mini-sandp500.html" xr:uid="{2695681B-4D0B-4AC8-9566-1ECBE946711E}"/>
-    <hyperlink ref="H7" r:id="rId3" display="https://ycharts.com/indicators/sp_500_dividend_yield" xr:uid="{40556034-5DB6-415A-83B2-11CFA30DBD5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2297,8 +2148,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="236" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="196" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2449,7 +2300,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2599,7 +2450,7 @@
       <c r="E12" s="10">
         <v>360</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>

--- a/activities/Mexican Related Derivatives/Pricing Derivatives Table - copia.xlsx
+++ b/activities/Mexican Related Derivatives/Pricing Derivatives Table - copia.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://winliveudlap-my.sharepoint.com/personal/heriberto_espinomo_udlap_mx/Documents/Universidad/09 Semestre Otoño/Productos Derivados/activities/Mexican Related Derivatives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="625" documentId="8_{733CA016-E4A7-428A-A759-10397AE54436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF04A05-0204-44C9-9B5C-544F228CB776}"/>
+  <xr:revisionPtr revIDLastSave="692" documentId="8_{733CA016-E4A7-428A-A759-10397AE54436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0313B66-FF77-4981-9C30-BB5F3C5E6F29}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{5F38871A-6685-451C-ACE8-1E35FDC6A578}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="4" xr2:uid="{5F38871A-6685-451C-ACE8-1E35FDC6A578}"/>
   </bookViews>
   <sheets>
     <sheet name="Corn" sheetId="4" r:id="rId1"/>
     <sheet name="Crude Oil" sheetId="3" r:id="rId2"/>
     <sheet name="Silver" sheetId="5" r:id="rId3"/>
     <sheet name="IPC" sheetId="6" r:id="rId4"/>
-    <sheet name="USDMXN" sheetId="7" r:id="rId5"/>
+    <sheet name="MXNUSD" sheetId="7" r:id="rId5"/>
     <sheet name="TIIE 1M" sheetId="2" r:id="rId6"/>
     <sheet name="SP500" sheetId="1" r:id="rId7"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
   <si>
     <t>https://www.newyorkfed.org/markets/reference-rates/sofr?cid=SM1900054756</t>
   </si>
@@ -210,14 +210,25 @@
   </si>
   <si>
     <t>Actual Futures Price</t>
+  </si>
+  <si>
+    <t>F-TIIE</t>
+  </si>
+  <si>
+    <t>Money Market</t>
+  </si>
+  <si>
+    <t>SOFR/TIIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -494,7 +505,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -589,13 +600,28 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1135,10 +1161,10 @@
         <v>-4.6511627906976605E-3</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="17" x14ac:dyDescent="0.55000000000000004">
@@ -1367,10 +1393,10 @@
         <v>-1.4356356675705451E-3</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="36"/>
       <c r="H16" s="2"/>
     </row>
@@ -1407,7 +1433,7 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="147" workbookViewId="0">
+    <sheetView zoomScale="141" zoomScaleNormal="147" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1601,10 +1627,10 @@
         <v>1.5049176442706536E-2</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="36"/>
       <c r="H16" s="2"/>
     </row>
@@ -1874,10 +1900,10 @@
         <v>6.6441269057371244E-4</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="41"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="36"/>
       <c r="H19" s="2"/>
     </row>
@@ -1913,8 +1939,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1950,121 +1976,117 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="24"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="3"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="12">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
-      <c r="B4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10">
-        <f>1/18.4275</f>
-        <v>5.4266720933387608E-2</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="H4" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="3"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="20" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="10">
-        <v>5.3699999999999998E-2</v>
+        <v>58</v>
+      </c>
+      <c r="D5" s="12">
+        <f>(1+(D2*C10/360))/(1+(D3*C10/360))</f>
+        <v>0.99081814951402536</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="H5" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="24"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="7"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="29">
-        <v>94</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="24"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="46">
+        <f>1/18.4275</f>
+        <v>5.4266720933387608E-2</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6"/>
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="H8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12">
-        <f>D2</f>
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="D10" s="14">
-        <f>(1+C10)^(1/360)-1</f>
-        <v>1.2014900063062051E-4</v>
-      </c>
-      <c r="E10" s="10">
-        <v>360</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="29">
+        <v>94</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15">
-        <f>D4*EXP((D10)*C7)</f>
-        <v>5.4883083658962044E-2</v>
+      <c r="C12" s="47">
+        <f>D7*D5</f>
+        <v>5.376845201541313E-2</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="7"/>
@@ -2075,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="17">
-        <f>D5</f>
+        <f>D8</f>
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="D13" s="17"/>
@@ -2089,7 +2111,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="15">
         <f>C13-C12</f>
-        <v>-1.1830836589620461E-3</v>
+        <v>-6.8452015413132672E-5</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2104,14 +2126,14 @@
         <v>13</v>
       </c>
       <c r="C16" s="30">
-        <f>C13/D4-1</f>
+        <f>C13/D7-1</f>
         <v>-1.0443250000000126E-2</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="36"/>
       <c r="H16" s="2"/>
     </row>
@@ -2134,7 +2156,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{F3061B27-1A02-4E4F-838B-0944B0E219B6}"/>
-    <hyperlink ref="H5" r:id="rId2" display="https://www.cmegroup.com/markets/equities/sp/e-mini-sandp500.html" xr:uid="{2695681B-4D0B-4AC8-9566-1ECBE946711E}"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://www.cmegroup.com/markets/equities/sp/e-mini-sandp500.html" xr:uid="{2695681B-4D0B-4AC8-9566-1ECBE946711E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2148,8 +2170,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="236" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="205" zoomScaleNormal="289" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2266,10 +2288,10 @@
         <f>C8-C7</f>
         <v>0.30516690421751491</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="32"/>
@@ -2450,7 +2472,7 @@
       <c r="E12" s="10">
         <v>360</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
